--- a/other_files/generation_times.xlsx
+++ b/other_files/generation_times.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MapMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MapMaker\other_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B8065-0C02-497E-AC9F-B4F708F123C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D83193-74B6-408E-B1A4-DC3254A782FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D34F463-CC0A-4BC5-A8D2-CF354F62525B}"/>
   </bookViews>
@@ -36,9 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>The testing machine has a CPU with 8 cores and 16 threads.</t>
+  </si>
+  <si>
+    <t>CPU Threads</t>
+  </si>
+  <si>
+    <t>Pixels</t>
+  </si>
+  <si>
+    <t>1080p</t>
+  </si>
+  <si>
+    <t>2.5K</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>10K by 10K</t>
   </si>
 </sst>
 </file>
@@ -91,6 +112,3516 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Threads vs Time at 1080p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1080p</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6685</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-587C-4309-9184-9AC7365A0092}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663732512"/>
+        <c:axId val="599989104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663732512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>CPU Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599989104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599989104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (MS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663732512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t> Threads vs Time at 8K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>217615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4B6-44EA-A626-1F6A477DA512}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="849773600"/>
+        <c:axId val="663707552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="849773600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663707552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663707552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849773600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76AD-4236-A0BC-05C951DD697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1440261520"/>
+        <c:axId val="1440258640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1440261520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>CPU Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440258640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1440258640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440261520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF754B81-5027-4BA7-599F-795813E520BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66095ADD-4A3A-E3EE-C7C1-4572230D076D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F9D650-A864-FA9E-F50E-F1CE58654BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,20 +3941,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7447EED9-E025-4C04-B257-DE93B0B63252}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>1920*1080</f>
+        <v>2073600</v>
+      </c>
+      <c r="C5">
+        <v>14553</v>
+      </c>
+      <c r="D5">
+        <v>8511</v>
+      </c>
+      <c r="E5">
+        <v>5949</v>
+      </c>
+      <c r="F5">
+        <v>5681</v>
+      </c>
+      <c r="G5">
+        <v>5742</v>
+      </c>
+      <c r="H5">
+        <v>5960</v>
+      </c>
+      <c r="I5">
+        <v>5959</v>
+      </c>
+      <c r="J5">
+        <v>6244</v>
+      </c>
+      <c r="K5">
+        <v>6474</v>
+      </c>
+      <c r="L5">
+        <v>6685</v>
+      </c>
+      <c r="M5">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>2560*1440</f>
+        <v>3686400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>3840*2160</f>
+        <v>8294400</v>
+      </c>
+      <c r="C7">
+        <v>54120</v>
+      </c>
+      <c r="D7">
+        <v>30584</v>
+      </c>
+      <c r="E7">
+        <v>20641</v>
+      </c>
+      <c r="F7">
+        <v>19369</v>
+      </c>
+      <c r="G7">
+        <v>19644</v>
+      </c>
+      <c r="H7">
+        <v>19950</v>
+      </c>
+      <c r="I7">
+        <v>20756</v>
+      </c>
+      <c r="J7">
+        <v>20971</v>
+      </c>
+      <c r="K7">
+        <v>21743</v>
+      </c>
+      <c r="L7">
+        <v>21692</v>
+      </c>
+      <c r="M7">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>7860*4320</f>
+        <v>33955200</v>
+      </c>
+      <c r="C8">
+        <v>217615</v>
+      </c>
+      <c r="D8">
+        <v>122869</v>
+      </c>
+      <c r="E8">
+        <v>83010</v>
+      </c>
+      <c r="F8">
+        <v>77798</v>
+      </c>
+      <c r="G8">
+        <v>78837</v>
+      </c>
+      <c r="H8">
+        <v>81189</v>
+      </c>
+      <c r="I8">
+        <v>83801</v>
+      </c>
+      <c r="J8">
+        <v>84933</v>
+      </c>
+      <c r="K8">
+        <v>87375</v>
+      </c>
+      <c r="L8">
+        <v>90059</v>
+      </c>
+      <c r="M8">
+        <v>93864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>10000*10000</f>
+        <v>100000000</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:M5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:M8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>